--- a/labs/vending2.xlsx
+++ b/labs/vending2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18195" windowHeight="7230"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="8880" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>state</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>MOD(A2,4)</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,6 +393,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -422,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B30" si="0">QUOTIENT(A4,4)</f>
+        <f t="shared" ref="B4:C31" si="0">QUOTIENT(A4,4)</f>
         <v>0</v>
       </c>
       <c r="C4">
@@ -882,12 +888,460 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>C1+1</f>
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <f>D1+1</f>
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <f>E1+1</f>
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <f>F1+1</f>
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <f>G1+1</f>
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <f>H1+1</f>
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <f>I1+1</f>
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <f>J1+1</f>
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <f>K1+1</f>
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <f>L1+1</f>
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <f>M1+1</f>
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <f>N1+1</f>
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <f>O1+1</f>
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <f>P1+1</f>
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <f>Q1+1</f>
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <f>R1+1</f>
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <f>S1+1</f>
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <f>T1+1</f>
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <f>U1+1</f>
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <f>V1+1</f>
+        <v>20</v>
+      </c>
+      <c r="X1">
+        <f>W1+1</f>
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <f>X1+1</f>
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <f>Y1+1</f>
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <f>Z1+1</f>
+        <v>24</v>
+      </c>
+      <c r="AB1">
+        <f>AA1+1</f>
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <f>AB1+1</f>
+        <v>26</v>
+      </c>
+      <c r="AD1">
+        <f>AC1+1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>QUOTIENT(C1,4)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>QUOTIENT(D1,4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>QUOTIENT(E1,4)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>QUOTIENT(F1,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>QUOTIENT(G1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>QUOTIENT(H1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>QUOTIENT(I1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>QUOTIENT(J1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>QUOTIENT(K1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f>QUOTIENT(L1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f>QUOTIENT(M1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <f>QUOTIENT(N1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <f>QUOTIENT(O1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <f>QUOTIENT(P1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <f>QUOTIENT(Q1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <f>QUOTIENT(R1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <f>QUOTIENT(S1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <f>QUOTIENT(T1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <f>QUOTIENT(U1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <f>QUOTIENT(V1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <f>QUOTIENT(W1,4)</f>
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <f>QUOTIENT(X1,4)</f>
+        <v>5</v>
+      </c>
+      <c r="Y2">
+        <f>QUOTIENT(Y1,4)</f>
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <f>QUOTIENT(Z1,4)</f>
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <f>QUOTIENT(AA1,4)</f>
+        <v>6</v>
+      </c>
+      <c r="AB2">
+        <f>QUOTIENT(AB1,4)</f>
+        <v>6</v>
+      </c>
+      <c r="AC2">
+        <f>QUOTIENT(AC1,4)</f>
+        <v>6</v>
+      </c>
+      <c r="AD2">
+        <f>QUOTIENT(AD1,4)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>MOD(C1,4)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>MOD(D1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>MOD(E1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>MOD(F1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f>MOD(G1,4)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>MOD(H1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>MOD(I1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f>MOD(J1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f>MOD(K1,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>MOD(L1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>MOD(M1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>MOD(N1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f>MOD(O1,4)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>MOD(P1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f>MOD(Q1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f>MOD(R1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <f>MOD(S1,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>MOD(T1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <f>MOD(U1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f>MOD(V1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <f>MOD(W1,4)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>MOD(X1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <f>MOD(Y1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <f>MOD(Z1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <f>MOD(AA1,4)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>MOD(AB1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <f>MOD(AC1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <f>MOD(AD1,4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="W4">
+        <v>6</v>
+      </c>
+      <c r="X4">
+        <v>6</v>
+      </c>
+      <c r="Y4">
+        <v>6</v>
+      </c>
+      <c r="Z4">
+        <v>6</v>
+      </c>
+      <c r="AA4">
+        <v>6</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
